--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.93</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -971,4 +972,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,17 +992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1027,14 +1070,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1043,7 +1176,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1059,13 +1192,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -770,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -808,36 +792,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -902,36 +884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -940,34 +922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1032,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1070,36 +1054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1113,112 +1097,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00006-电能实业.xlsx
+++ b/数据整理/stocks/港股/00006-电能实业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>006659</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0889</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -792,34 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -884,36 +941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -922,36 +979,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1016,32 +1071,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1054,32 +1109,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1092,6 +1147,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
